--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/996_角色标示物对应关系表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/996_角色标示物对应关系表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B80B1F9B-DF0C-4873-B873-02F7E3ABA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD93AE-9FBB-466D-95F2-8F97DAC84D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BitFlags" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/996_角色标示物对应关系表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/996_角色标示物对应关系表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCD93AE-9FBB-466D-95F2-8F97DAC84D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF184FDA-5757-4D13-885E-F7A379EDE52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BitFlags" sheetId="1" r:id="rId1"/>
@@ -194,18 +194,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -284,7 +284,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -632,7 +632,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
